--- a/Especial_Uniandes_2023/1. CV/data/event_es.xlsx
+++ b/Especial_Uniandes_2023/1. CV/data/event_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\Especial_Uniandes_2023\1. CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C617F1E-F638-4BF8-AC45-65E21D1B8C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CB64A0-E834-4723-89D4-A81FBE517404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2985" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Presidente del Comité Científico</t>
   </si>
   <si>
-    <t>1er Congreso Internacional Virtual ISEP</t>
-  </si>
-  <si>
     <t>Nov. 25 ‑ 28, 2020</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>Universidad El Bosque y Universidad de los Andes</t>
   </si>
   <si>
-    <t>CIVN2020 - Congreso Internacional de Neurociencias: Cerebro y Comportamiento en Tiempos de COVID-19</t>
-  </si>
-  <si>
     <t>\href{http://doi.org/10.17605/OSF.IO/5BWNX}{Memorias}</t>
   </si>
   <si>
@@ -68,6 +62,12 @@
   </si>
   <si>
     <t>Miembro del Comité Científico</t>
+  </si>
+  <si>
+    <t>\href{https://www.youtube.com/playlist?list=PLI4QwBEXHFJKVhSBqaof6gJdKCi3CN2UM}{CIVN2020 - Congreso Internacional de Neurociencias: Cerebro y Comportamiento en Tiempos de COVID-19}</t>
+  </si>
+  <si>
+    <t>\href{https://www.isep.es/congreso2020/}{1er Congreso Internacional Virtual ISEP}</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,21 +968,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -991,24 +991,24 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
